--- a/doc/2018Java中级学生作品.xlsx
+++ b/doc/2018Java中级学生作品.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10123"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5C3B2C-B076-4407-9CE3-FFEE43813B72}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{CC5C3B2C-B076-4407-9CE3-FFEE43813B72}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{67E2D583-58B6-4149-A5AF-D3D612240A5E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="社員" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -54,7 +54,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2466,9 +2466,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A115" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
@@ -2494,11 +2494,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2055FB7A-FA8F-411C-8E52-06FC4BB2EBF7}">
   <dimension ref="B1:B3"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:XFD95"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="1" t="s">
